--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.967216</v>
+        <v>11.430265</v>
       </c>
       <c r="H2">
-        <v>35.901648</v>
+        <v>34.290795</v>
       </c>
       <c r="I2">
-        <v>0.06220177631455731</v>
+        <v>0.05939319992829472</v>
       </c>
       <c r="J2">
-        <v>0.0622017763145573</v>
+        <v>0.05939319992829471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N2">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O2">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P2">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q2">
-        <v>619.6866820814721</v>
+        <v>493.7638064018917</v>
       </c>
       <c r="R2">
-        <v>5577.180138733249</v>
+        <v>4443.874257617024</v>
       </c>
       <c r="S2">
-        <v>0.04480353603960224</v>
+        <v>0.04402543699935874</v>
       </c>
       <c r="T2">
-        <v>0.04480353603960223</v>
+        <v>0.04402543699935874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.967216</v>
+        <v>11.430265</v>
       </c>
       <c r="H3">
-        <v>35.901648</v>
+        <v>34.290795</v>
       </c>
       <c r="I3">
-        <v>0.06220177631455731</v>
+        <v>0.05939319992829472</v>
       </c>
       <c r="J3">
-        <v>0.0622017763145573</v>
+        <v>0.05939319992829471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.14098</v>
       </c>
       <c r="O3">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P3">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q3">
-        <v>124.22361137056</v>
+        <v>118.6498845865667</v>
       </c>
       <c r="R3">
-        <v>1118.01250233504</v>
+        <v>1067.8489612791</v>
       </c>
       <c r="S3">
-        <v>0.008981404974391066</v>
+        <v>0.01057917358688578</v>
       </c>
       <c r="T3">
-        <v>0.008981404974391064</v>
+        <v>0.01057917358688578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.967216</v>
+        <v>11.430265</v>
       </c>
       <c r="H4">
-        <v>35.901648</v>
+        <v>34.290795</v>
       </c>
       <c r="I4">
-        <v>0.06220177631455731</v>
+        <v>0.05939319992829472</v>
       </c>
       <c r="J4">
-        <v>0.0622017763145573</v>
+        <v>0.05939319992829471</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N4">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O4">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P4">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q4">
-        <v>6.262480034448</v>
+        <v>4.824589123585</v>
       </c>
       <c r="R4">
-        <v>56.362320310032</v>
+        <v>43.421302112265</v>
       </c>
       <c r="S4">
-        <v>0.0004527792157453395</v>
+        <v>0.0004301745931035278</v>
       </c>
       <c r="T4">
-        <v>0.0004527792157453394</v>
+        <v>0.0004301745931035278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.967216</v>
+        <v>11.430265</v>
       </c>
       <c r="H5">
-        <v>35.901648</v>
+        <v>34.290795</v>
       </c>
       <c r="I5">
-        <v>0.06220177631455731</v>
+        <v>0.05939319992829472</v>
       </c>
       <c r="J5">
-        <v>0.0622017763145573</v>
+        <v>0.05939319992829471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N5">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O5">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P5">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q5">
-        <v>68.12387970307199</v>
+        <v>47.24158624197832</v>
       </c>
       <c r="R5">
-        <v>613.114917327648</v>
+        <v>425.1742761778049</v>
       </c>
       <c r="S5">
-        <v>0.004925377271594862</v>
+        <v>0.004212199136267071</v>
       </c>
       <c r="T5">
-        <v>0.004925377271594862</v>
+        <v>0.004212199136267072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.967216</v>
+        <v>11.430265</v>
       </c>
       <c r="H6">
-        <v>35.901648</v>
+        <v>34.290795</v>
       </c>
       <c r="I6">
-        <v>0.06220177631455731</v>
+        <v>0.05939319992829472</v>
       </c>
       <c r="J6">
-        <v>0.0622017763145573</v>
+        <v>0.05939319992829471</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N6">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O6">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P6">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q6">
-        <v>42.028575378816</v>
+        <v>1.639869638843333</v>
       </c>
       <c r="R6">
-        <v>378.257178409344</v>
+        <v>14.75882674959</v>
       </c>
       <c r="S6">
-        <v>0.003038678813223801</v>
+        <v>0.0001462156126795886</v>
       </c>
       <c r="T6">
-        <v>0.0030386788132238</v>
+        <v>0.0001462156126795886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>526.245545</v>
       </c>
       <c r="I7">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935387</v>
       </c>
       <c r="J7">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935386</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N7">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O7">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P7">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q7">
-        <v>9083.353380914603</v>
+        <v>7577.573030932586</v>
       </c>
       <c r="R7">
-        <v>81750.18042823143</v>
+        <v>68198.15727839328</v>
       </c>
       <c r="S7">
-        <v>0.6567292187001449</v>
+        <v>0.6756387563365244</v>
       </c>
       <c r="T7">
-        <v>0.6567292187001448</v>
+        <v>0.6756387563365244</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>526.245545</v>
       </c>
       <c r="I8">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935387</v>
       </c>
       <c r="J8">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935386</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>31.14098</v>
       </c>
       <c r="O8">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P8">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q8">
         <v>1820.866887992678</v>
@@ -948,10 +948,10 @@
         <v>16387.8019919341</v>
       </c>
       <c r="S8">
-        <v>0.1316492311331819</v>
+        <v>0.1623538611420445</v>
       </c>
       <c r="T8">
-        <v>0.1316492311331819</v>
+        <v>0.1623538611420445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>526.245545</v>
       </c>
       <c r="I9">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935387</v>
       </c>
       <c r="J9">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935386</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N9">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O9">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P9">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q9">
-        <v>91.79529081171165</v>
+        <v>74.04081861450166</v>
       </c>
       <c r="R9">
-        <v>826.157617305405</v>
+        <v>666.367367530515</v>
       </c>
       <c r="S9">
-        <v>0.006636827511499716</v>
+        <v>0.006601697720712491</v>
       </c>
       <c r="T9">
-        <v>0.006636827511499715</v>
+        <v>0.006601697720712491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>526.245545</v>
       </c>
       <c r="I10">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935387</v>
       </c>
       <c r="J10">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935386</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N10">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O10">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P10">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q10">
-        <v>998.5582890751299</v>
+        <v>724.9955650947837</v>
       </c>
       <c r="R10">
-        <v>8987.024601676168</v>
+        <v>6524.960085853054</v>
       </c>
       <c r="S10">
-        <v>0.07219606873258438</v>
+        <v>0.06464274246524161</v>
       </c>
       <c r="T10">
-        <v>0.07219606873258438</v>
+        <v>0.06464274246524161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>526.245545</v>
       </c>
       <c r="I11">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935387</v>
       </c>
       <c r="J11">
-        <v>0.9117522314469324</v>
+        <v>0.9114809634935386</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N11">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O11">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P11">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q11">
-        <v>616.0539080489733</v>
+        <v>25.16634833989889</v>
       </c>
       <c r="R11">
-        <v>5544.48517244076</v>
+        <v>226.49713505909</v>
       </c>
       <c r="S11">
-        <v>0.04454088536952153</v>
+        <v>0.002243905829015601</v>
       </c>
       <c r="T11">
-        <v>0.04454088536952152</v>
+        <v>0.002243905829015601</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>4.979774333333332</v>
+        <v>0.05623966666666667</v>
       </c>
       <c r="H12">
-        <v>14.939323</v>
+        <v>0.168719</v>
       </c>
       <c r="I12">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="J12">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N12">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O12">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P12">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q12">
-        <v>257.8628006829497</v>
+        <v>2.429437277622778</v>
       </c>
       <c r="R12">
-        <v>2320.765206146548</v>
+        <v>21.864935498605</v>
       </c>
       <c r="S12">
-        <v>0.01864355910452241</v>
+        <v>0.0002166157916459741</v>
       </c>
       <c r="T12">
-        <v>0.0186435591045224</v>
+        <v>0.0002166157916459741</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>4.979774333333332</v>
+        <v>0.05623966666666667</v>
       </c>
       <c r="H13">
-        <v>14.939323</v>
+        <v>0.168719</v>
       </c>
       <c r="I13">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="J13">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.14098</v>
       </c>
       <c r="O13">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P13">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q13">
-        <v>51.69168430628221</v>
+        <v>0.5837861116244445</v>
       </c>
       <c r="R13">
-        <v>465.22515875654</v>
+        <v>5.25407500462</v>
       </c>
       <c r="S13">
-        <v>0.003737324534690854</v>
+        <v>5.205209119257172E-05</v>
       </c>
       <c r="T13">
-        <v>0.003737324534690854</v>
+        <v>5.205209119257172E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.979774333333332</v>
+        <v>0.05623966666666667</v>
       </c>
       <c r="H14">
-        <v>14.939323</v>
+        <v>0.168719</v>
       </c>
       <c r="I14">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="J14">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N14">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O14">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P14">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q14">
-        <v>2.605930847956333</v>
+        <v>0.02373814466366667</v>
       </c>
       <c r="R14">
-        <v>23.453377631607</v>
+        <v>0.213643301973</v>
       </c>
       <c r="S14">
-        <v>0.0001884095947825657</v>
+        <v>2.116562977727233E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001884095947825657</v>
+        <v>2.116562977727234E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.979774333333332</v>
+        <v>0.05623966666666667</v>
       </c>
       <c r="H15">
-        <v>14.939323</v>
+        <v>0.168719</v>
       </c>
       <c r="I15">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="J15">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N15">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O15">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P15">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q15">
-        <v>28.34757454302199</v>
+        <v>0.2324400233112222</v>
       </c>
       <c r="R15">
-        <v>255.1281708871979</v>
+        <v>2.091960209801</v>
       </c>
       <c r="S15">
-        <v>0.002049538281841947</v>
+        <v>2.072503790220799E-05</v>
       </c>
       <c r="T15">
-        <v>0.002049538281841947</v>
+        <v>2.072503790220799E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.979774333333332</v>
+        <v>0.05623966666666667</v>
       </c>
       <c r="H16">
-        <v>14.939323</v>
+        <v>0.168719</v>
       </c>
       <c r="I16">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="J16">
-        <v>0.02588328055405482</v>
+        <v>0.0002922288998753735</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N16">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O16">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P16">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q16">
-        <v>17.48884794408266</v>
+        <v>0.008068555004222223</v>
       </c>
       <c r="R16">
-        <v>157.399631496744</v>
+        <v>0.07261699503800001</v>
       </c>
       <c r="S16">
-        <v>0.001264449038217048</v>
+        <v>7.194161568924696E-07</v>
       </c>
       <c r="T16">
-        <v>0.001264449038217048</v>
+        <v>7.194161568924696E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.03130466666666667</v>
+        <v>5.493340666666666</v>
       </c>
       <c r="H17">
-        <v>0.093914</v>
+        <v>16.480022</v>
       </c>
       <c r="I17">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="J17">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N17">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O17">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P17">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q17">
-        <v>1.621019042384889</v>
+        <v>237.3009547403877</v>
       </c>
       <c r="R17">
-        <v>14.589171381464</v>
+        <v>2135.70859266349</v>
       </c>
       <c r="S17">
-        <v>0.0001172001709677284</v>
+        <v>0.02115845288244399</v>
       </c>
       <c r="T17">
-        <v>0.0001172001709677284</v>
+        <v>0.02115845288244399</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.03130466666666667</v>
+        <v>5.493340666666666</v>
       </c>
       <c r="H18">
-        <v>0.093914</v>
+        <v>16.480022</v>
       </c>
       <c r="I18">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="J18">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>31.14098</v>
       </c>
       <c r="O18">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P18">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q18">
-        <v>0.3249526661911111</v>
+        <v>57.02267061128444</v>
       </c>
       <c r="R18">
-        <v>2.92457399572</v>
+        <v>513.2040355015599</v>
       </c>
       <c r="S18">
-        <v>2.349417683458326E-05</v>
+        <v>0.005084309461291189</v>
       </c>
       <c r="T18">
-        <v>2.349417683458326E-05</v>
+        <v>0.005084309461291189</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.03130466666666667</v>
+        <v>5.493340666666666</v>
       </c>
       <c r="H19">
-        <v>0.093914</v>
+        <v>16.480022</v>
       </c>
       <c r="I19">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="J19">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N19">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O19">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P19">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q19">
-        <v>0.01638182598066667</v>
+        <v>2.318678668652666</v>
       </c>
       <c r="R19">
-        <v>0.147436433826</v>
+        <v>20.868108017874</v>
       </c>
       <c r="S19">
-        <v>1.184411012762083E-06</v>
+        <v>0.0002067402274630024</v>
       </c>
       <c r="T19">
-        <v>1.184411012762083E-06</v>
+        <v>0.0002067402274630025</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.03130466666666667</v>
+        <v>5.493340666666666</v>
       </c>
       <c r="H20">
-        <v>0.093914</v>
+        <v>16.480022</v>
       </c>
       <c r="I20">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="J20">
-        <v>0.0001627116844554137</v>
+        <v>0.02854413965814136</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N20">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O20">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P20">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q20">
-        <v>0.178203129796</v>
+        <v>22.70412163330422</v>
       </c>
       <c r="R20">
-        <v>1.603828168164</v>
+        <v>204.3370946997379</v>
       </c>
       <c r="S20">
-        <v>1.288414061339356E-05</v>
+        <v>0.00202436643519237</v>
       </c>
       <c r="T20">
-        <v>1.288414061339356E-05</v>
+        <v>0.00202436643519237</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.493340666666666</v>
+      </c>
+      <c r="H21">
+        <v>16.480022</v>
+      </c>
+      <c r="I21">
+        <v>0.02854413965814136</v>
+      </c>
+      <c r="J21">
+        <v>0.02854413965814136</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1434673333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.430402</v>
+      </c>
+      <c r="O21">
+        <v>0.002461824128959449</v>
+      </c>
+      <c r="P21">
+        <v>0.002461824128959449</v>
+      </c>
+      <c r="Q21">
+        <v>0.7881149365382221</v>
+      </c>
+      <c r="R21">
+        <v>7.093034428844</v>
+      </c>
+      <c r="S21">
+        <v>7.027065175080072E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.027065175080072E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.05570833333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.167125</v>
+      </c>
+      <c r="I22">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="J22">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>43.19793166666667</v>
+      </c>
+      <c r="N22">
+        <v>129.593795</v>
+      </c>
+      <c r="O22">
+        <v>0.7412538312889448</v>
+      </c>
+      <c r="P22">
+        <v>0.7412538312889448</v>
+      </c>
+      <c r="Q22">
+        <v>2.406484776597222</v>
+      </c>
+      <c r="R22">
+        <v>21.658362989375</v>
+      </c>
+      <c r="S22">
+        <v>0.0002145692789717424</v>
+      </c>
+      <c r="T22">
+        <v>0.0002145692789717424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.05570833333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.167125</v>
+      </c>
+      <c r="I23">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="J23">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.38032666666667</v>
+      </c>
+      <c r="N23">
+        <v>31.14098</v>
+      </c>
+      <c r="O23">
+        <v>0.1781209566020688</v>
+      </c>
+      <c r="P23">
+        <v>0.1781209566020688</v>
+      </c>
+      <c r="Q23">
+        <v>0.5782706980555555</v>
+      </c>
+      <c r="R23">
+        <v>5.2044362825</v>
+      </c>
+      <c r="S23">
+        <v>5.156032065480798E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.156032065480798E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.05570833333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.167125</v>
+      </c>
+      <c r="I24">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="J24">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.422089</v>
+      </c>
+      <c r="N24">
+        <v>1.266267</v>
+      </c>
+      <c r="O24">
+        <v>0.007242825670663926</v>
+      </c>
+      <c r="P24">
+        <v>0.007242825670663927</v>
+      </c>
+      <c r="Q24">
+        <v>0.02351387470833333</v>
+      </c>
+      <c r="R24">
+        <v>0.211624872375</v>
+      </c>
+      <c r="S24">
+        <v>2.096566407177993E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.096566407177994E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.03130466666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.093914</v>
-      </c>
-      <c r="I21">
-        <v>0.0001627116844554137</v>
-      </c>
-      <c r="J21">
-        <v>0.0001627116844554137</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.511976</v>
-      </c>
-      <c r="N21">
-        <v>10.535928</v>
-      </c>
-      <c r="O21">
-        <v>0.04885196200598933</v>
-      </c>
-      <c r="P21">
-        <v>0.04885196200598932</v>
-      </c>
-      <c r="Q21">
-        <v>0.1099412380213333</v>
-      </c>
-      <c r="R21">
-        <v>0.9894711421919999</v>
-      </c>
-      <c r="S21">
-        <v>7.948785026946396E-06</v>
-      </c>
-      <c r="T21">
-        <v>7.948785026946393E-06</v>
+      <c r="G25">
+        <v>0.05570833333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.167125</v>
+      </c>
+      <c r="I25">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="J25">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.133026333333333</v>
+      </c>
+      <c r="N25">
+        <v>12.399079</v>
+      </c>
+      <c r="O25">
+        <v>0.07092056230936286</v>
+      </c>
+      <c r="P25">
+        <v>0.07092056230936288</v>
+      </c>
+      <c r="Q25">
+        <v>0.2302440086527777</v>
+      </c>
+      <c r="R25">
+        <v>2.072196077875</v>
+      </c>
+      <c r="S25">
+        <v>2.052923475960923E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.052923475960923E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.05570833333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.167125</v>
+      </c>
+      <c r="I26">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="J26">
+        <v>0.0002894680201499048</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1434673333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.430402</v>
+      </c>
+      <c r="O26">
+        <v>0.002461824128959449</v>
+      </c>
+      <c r="P26">
+        <v>0.002461824128959449</v>
+      </c>
+      <c r="Q26">
+        <v>0.007992326027777778</v>
+      </c>
+      <c r="R26">
+        <v>0.07193093424999999</v>
+      </c>
+      <c r="S26">
+        <v>7.126193565671559E-07</v>
+      </c>
+      <c r="T26">
+        <v>7.126193565671559E-07</v>
       </c>
     </row>
   </sheetData>
